--- a/instance/zyjk/gw/i/i_gw.xlsx
+++ b/instance/zyjk/gw/i/i_gw.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16760" activeTab="2"/>
+    <workbookView windowWidth="27540" windowHeight="16760" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="readme" sheetId="1" r:id="rId1"/>
@@ -18587,16 +18587,16 @@
   <sheetPr codeName="签约"/>
   <dimension ref="A1:AJ58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="M23" sqref="M23"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="18" customHeight="1"/>
   <cols>
     <col min="2" max="2" width="28.1875" customWidth="1"/>
-    <col min="4" max="4" width="37.375" customWidth="1"/>
+    <col min="4" max="4" width="48.78125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="35.25" customHeight="1" spans="1:36">
@@ -23616,7 +23616,7 @@
   <sheetPr codeName="高血压"/>
   <dimension ref="A1:AJ225"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="A1" sqref="$A1:$XFD1"/>
